--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -67,145 +64,157 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>old</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>easy</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>quality</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2403100775193799</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +694,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.978494623655914</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,10 +749,10 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +772,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8622291021671826</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>557</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>557</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -867,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -893,13 +902,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.696969696969697</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L12">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -919,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6711864406779661</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L13">
-        <v>198</v>
+        <v>797</v>
       </c>
       <c r="M13">
-        <v>198</v>
+        <v>797</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>97</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6619718309859155</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6438356164383562</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1032,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6388888888888888</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1058,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6348314606741573</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L18">
-        <v>791</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>791</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>455</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1084,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.631578947368421</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1110,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,13 +1136,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6122448979591837</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1162,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1188,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.6029411764705882</v>
+        <v>0.578125</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1205,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1231,13 +1240,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5662650602409639</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1266,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5480769230769231</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1292,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.546875</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5238095238095238</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1335,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5076923076923077</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1361,13 +1370,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.5042735042735043</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1387,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1405,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1413,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4670658682634731</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L32">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1439,13 +1448,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1465,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.44</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1491,13 +1500,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1509,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1517,13 +1526,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.4156626506024096</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L36">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1535,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1543,13 +1552,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3651960784313725</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L37">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1561,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1569,13 +1578,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3383458646616541</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1587,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>88</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1595,13 +1604,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2949640287769784</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1621,13 +1630,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2918287937743191</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L40">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1647,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.287037037037037</v>
+        <v>0.2712328767123288</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1665,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>77</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1673,13 +1682,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2727272727272727</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L42">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M42">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1691,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1699,13 +1708,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2702702702702703</v>
+        <v>0.2303552206673843</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1717,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>81</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1725,13 +1734,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2561643835616438</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L44">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="M44">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>543</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1751,13 +1760,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2497308934337998</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L45">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1769,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>697</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1777,13 +1786,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2052980132450331</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1795,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1803,13 +1812,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1943573667711599</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1821,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>257</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1829,13 +1838,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1841059602649007</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L48">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1847,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>616</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1855,13 +1864,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1687979539641944</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L49">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M49">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1873,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1881,25 +1890,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1338199513381995</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L50">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M50">
         <v>55</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1907,13 +1916,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.127147766323024</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>254</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1933,13 +1942,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1159029649595687</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L52">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1951,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1959,13 +1968,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1068181818181818</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L53">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1977,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>393</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1985,13 +1994,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.08991228070175439</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2003,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2011,25 +2020,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.06743185078909612</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L55">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>650</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2037,13 +2046,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.05690298507462686</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L56">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="M56">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2055,7 +2064,85 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1011</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57">
+        <v>0.06599713055954089</v>
+      </c>
+      <c r="L57">
+        <v>46</v>
+      </c>
+      <c r="M57">
+        <v>47</v>
+      </c>
+      <c r="N57">
+        <v>0.98</v>
+      </c>
+      <c r="O57">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58">
+        <v>0.06156716417910447</v>
+      </c>
+      <c r="L58">
+        <v>66</v>
+      </c>
+      <c r="M58">
+        <v>66</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>33</v>
+      </c>
+      <c r="N59">
+        <v>0.91</v>
+      </c>
+      <c r="O59">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
